--- a/biology/Zoologie/Didelphis_marsupialis/Didelphis_marsupialis.xlsx
+++ b/biology/Zoologie/Didelphis_marsupialis/Didelphis_marsupialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Opossum commun[1],[2] (Didelphis marsupialis) est une espèce parmi les opossums de la famille des Didelphidae.
-Il est aussi appelé Opossum austral[1], Pian ou Pyan  (en Guyane)[3], Manicou[4] ou Manikou (en Martinique)[3], ou encore Sarigue à oreilles noires[3] ou Opossum à oreilles noires[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Opossum commun, (Didelphis marsupialis) est une espèce parmi les opossums de la famille des Didelphidae.
+Il est aussi appelé Opossum austral, Pian ou Pyan  (en Guyane), Manicou ou Manikou (en Martinique), ou encore Sarigue à oreilles noires ou Opossum à oreilles noires.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet opossum est à peu près aussi gros qu'un chat. Physique atypique il souffre malgré lui d'un dégoût à tort des Hommes. Sa queue mince et lisse peut atteindre la même taille que le corps proprement dit (50 cm). Il pèse entre 500 et 1 500 grammes.
 Ses gros yeux sont habitués à l'obscurité.
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans les Antilles et entre autres en Martinique, en Amérique centrale et en Amérique du Sud, en Amérique du Nord seulement dans le Sud du Mexique. Ses zones d'habitat sont les forêts primaires et secondaires et les savanes mais aussi sur les terres agricoles. De temps en temps, certains égarés se retrouvent dans les villes.
 </t>
@@ -578,7 +594,9 @@
           <t>Mode de vie et alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet opossum  est un animal nocturne qui passe la majeure partie du jour à dormir dans des arbres creux, la tête placée en dessous du reste de son corps. À l'aurore, il descend au sol chercher sa nourriture.
 Il mange aussi bien des fruits (des mangues, par exemple), que des vers, des grenouilles, des insectes et parfois aussi des oiseaux et des œufs.
@@ -613,7 +631,9 @@
           <t>Reproduction et développement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à trois fois par an, la femelle met au monde 5 à 9 petits, après une gestation de 2 semaines passée dans un nid de feuillages. Les nouveau-nés sont ensuite portés dans la poche ventrale (ou marsupium) de la mère pendant 60 à 70 jours car ils sont très faibles et ne pèsent que 0,2 gramme. À la fin de cette période, ils pèsent 50 grammes. Ils passeront encore 8 à 12 jours dans un nid rudimentaire. Après quoi, pesant entre 80 et 120 grammes, les petits quittent leur mère.
 La longévité en milieu naturel est estimée à deux ans et demi.
@@ -646,7 +666,9 @@
           <t>Relations avec les humains</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les Antilles, il était, historiquement, chassé pendant la nuit avec une lampe torche. Cela aveugle l'animal, ce qui permet de le capturer plus facilement. Cette pratique est interdite (et passible d'amendes) car ce n'est pas un animal chassable.
 À Kourou en Guyane Française une association de protection pour le Pian devrait voir le jour. Nommée TPMP ( Touche Pas à Mon Pian ) elle aura pour objectif de sensibiliser le grand public sur le taux de mortalité élevé de l'animal. 
@@ -680,7 +702,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom, qui peut aussi s'écrire « manikou », vient probablement d'une langue amérindienne.
 </t>
@@ -711,9 +735,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (25 septembre 2014)[6] et Catalogue of Life                                   (25 septembre 2014)[7] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (25 septembre 2014) et Catalogue of Life                                   (25 septembre 2014) :
 sous-espèce Didelphis marsupialis caucae J. A. Allen, 1900
 sous-espèce Didelphis marsupialis marsupialis Linnaeus, 1758</t>
         </is>
